--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Tnfrsf10b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H2">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I2">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J2">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.555617529878</v>
+        <v>16.49411233333333</v>
       </c>
       <c r="N2">
-        <v>14.555617529878</v>
+        <v>49.482337</v>
       </c>
       <c r="O2">
-        <v>0.7451801835394454</v>
+        <v>0.7455266932732397</v>
       </c>
       <c r="P2">
-        <v>0.7451801835394454</v>
+        <v>0.7455266932732396</v>
       </c>
       <c r="Q2">
-        <v>6.817762318009191</v>
+        <v>0.6086052549127777</v>
       </c>
       <c r="R2">
-        <v>6.817762318009191</v>
+        <v>5.477447294215</v>
       </c>
       <c r="S2">
-        <v>0.6242847869407411</v>
+        <v>0.03926083426072909</v>
       </c>
       <c r="T2">
-        <v>0.6242847869407411</v>
+        <v>0.03926083426072909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H3">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I3">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J3">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.39241183797331</v>
+        <v>3.462491666666667</v>
       </c>
       <c r="N3">
-        <v>3.39241183797331</v>
+        <v>10.387475</v>
       </c>
       <c r="O3">
-        <v>0.1736757695696011</v>
+        <v>0.156503115206714</v>
       </c>
       <c r="P3">
-        <v>0.1736757695696011</v>
+        <v>0.1565031152067139</v>
       </c>
       <c r="Q3">
-        <v>1.588984977698613</v>
+        <v>0.1277601716805556</v>
       </c>
       <c r="R3">
-        <v>1.588984977698613</v>
+        <v>1.149841545125</v>
       </c>
       <c r="S3">
-        <v>0.1454992271634776</v>
+        <v>0.008241747643456431</v>
       </c>
       <c r="T3">
-        <v>0.1454992271634776</v>
+        <v>0.008241747643456429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H4">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I4">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J4">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.58498808403791</v>
+        <v>2.167503</v>
       </c>
       <c r="N4">
-        <v>1.58498808403791</v>
+        <v>6.502509</v>
       </c>
       <c r="O4">
-        <v>0.08114404689095339</v>
+        <v>0.09797019152004643</v>
       </c>
       <c r="P4">
-        <v>0.08114404689095339</v>
+        <v>0.09797019152004643</v>
       </c>
       <c r="Q4">
-        <v>0.7423987344862462</v>
+        <v>0.07997724819499999</v>
       </c>
       <c r="R4">
-        <v>0.7423987344862462</v>
+        <v>0.7197952337549999</v>
       </c>
       <c r="S4">
-        <v>0.06797952380351627</v>
+        <v>0.005159294075538495</v>
       </c>
       <c r="T4">
-        <v>0.06797952380351627</v>
+        <v>0.005159294075538495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09070646329332439</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H5">
-        <v>0.09070646329332439</v>
+        <v>1.436459</v>
       </c>
       <c r="I5">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="J5">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.555617529878</v>
+        <v>16.49411233333333</v>
       </c>
       <c r="N5">
-        <v>14.555617529878</v>
+        <v>49.482337</v>
       </c>
       <c r="O5">
-        <v>0.7451801835394454</v>
+        <v>0.7455266932732397</v>
       </c>
       <c r="P5">
-        <v>0.7451801835394454</v>
+        <v>0.7455266932732396</v>
       </c>
       <c r="Q5">
-        <v>1.320288587185548</v>
+        <v>7.897705369409222</v>
       </c>
       <c r="R5">
-        <v>1.320288587185548</v>
+        <v>71.079348324683</v>
       </c>
       <c r="S5">
-        <v>0.1208953965987042</v>
+        <v>0.509477200608272</v>
       </c>
       <c r="T5">
-        <v>0.1208953965987042</v>
+        <v>0.5094772006082718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09070646329332439</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H6">
-        <v>0.09070646329332439</v>
+        <v>1.436459</v>
       </c>
       <c r="I6">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="J6">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39241183797331</v>
+        <v>3.462491666666667</v>
       </c>
       <c r="N6">
-        <v>3.39241183797331</v>
+        <v>10.387475</v>
       </c>
       <c r="O6">
-        <v>0.1736757695696011</v>
+        <v>0.156503115206714</v>
       </c>
       <c r="P6">
-        <v>0.1736757695696011</v>
+        <v>0.1565031152067139</v>
       </c>
       <c r="Q6">
-        <v>0.3077136798569652</v>
+        <v>1.657909105669444</v>
       </c>
       <c r="R6">
-        <v>0.3077136798569652</v>
+        <v>14.921181951025</v>
       </c>
       <c r="S6">
-        <v>0.02817654240612352</v>
+        <v>0.106950924415482</v>
       </c>
       <c r="T6">
-        <v>0.02817654240612352</v>
+        <v>0.106950924415482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4788196666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.436459</v>
+      </c>
+      <c r="I7">
+        <v>0.6833788852970629</v>
+      </c>
+      <c r="J7">
+        <v>0.6833788852970629</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.167503</v>
+      </c>
+      <c r="N7">
+        <v>6.502509</v>
+      </c>
+      <c r="O7">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="P7">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="Q7">
+        <v>1.037843063959</v>
+      </c>
+      <c r="R7">
+        <v>9.340587575631</v>
+      </c>
+      <c r="S7">
+        <v>0.0669507602733091</v>
+      </c>
+      <c r="T7">
+        <v>0.0669507602733091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.124168</v>
+      </c>
+      <c r="I8">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J8">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>16.49411233333333</v>
+      </c>
+      <c r="N8">
+        <v>49.482337</v>
+      </c>
+      <c r="O8">
+        <v>0.7455266932732397</v>
+      </c>
+      <c r="P8">
+        <v>0.7455266932732396</v>
+      </c>
+      <c r="Q8">
+        <v>0.6826803134017778</v>
+      </c>
+      <c r="R8">
+        <v>6.144122820616</v>
+      </c>
+      <c r="S8">
+        <v>0.0440393808978383</v>
+      </c>
+      <c r="T8">
+        <v>0.0440393808978383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.124168</v>
+      </c>
+      <c r="I9">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J9">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.462491666666667</v>
+      </c>
+      <c r="N9">
+        <v>10.387475</v>
+      </c>
+      <c r="O9">
+        <v>0.156503115206714</v>
+      </c>
+      <c r="P9">
+        <v>0.1565031152067139</v>
+      </c>
+      <c r="Q9">
+        <v>0.1433102217555556</v>
+      </c>
+      <c r="R9">
+        <v>1.2897919958</v>
+      </c>
+      <c r="S9">
+        <v>0.009244873945460032</v>
+      </c>
+      <c r="T9">
+        <v>0.00924487394546003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.124168</v>
+      </c>
+      <c r="I10">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J10">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.167503</v>
+      </c>
+      <c r="N10">
+        <v>6.502509</v>
+      </c>
+      <c r="O10">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="P10">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="Q10">
+        <v>0.089711504168</v>
+      </c>
+      <c r="R10">
+        <v>0.807403537512</v>
+      </c>
+      <c r="S10">
+        <v>0.00578724627825524</v>
+      </c>
+      <c r="T10">
+        <v>0.005787246278255241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.430673</v>
+      </c>
+      <c r="I11">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J11">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.49411233333333</v>
+      </c>
+      <c r="N11">
+        <v>49.482337</v>
+      </c>
+      <c r="O11">
+        <v>0.7455266932732397</v>
+      </c>
+      <c r="P11">
+        <v>0.7455266932732396</v>
+      </c>
+      <c r="Q11">
+        <v>2.367856280311222</v>
+      </c>
+      <c r="R11">
+        <v>21.310706522801</v>
+      </c>
+      <c r="S11">
+        <v>0.1527492775064003</v>
+      </c>
+      <c r="T11">
+        <v>0.1527492775064003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.09070646329332439</v>
-      </c>
-      <c r="H7">
-        <v>0.09070646329332439</v>
-      </c>
-      <c r="I7">
-        <v>0.1622364620922648</v>
-      </c>
-      <c r="J7">
-        <v>0.1622364620922648</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.58498808403791</v>
-      </c>
-      <c r="N7">
-        <v>1.58498808403791</v>
-      </c>
-      <c r="O7">
-        <v>0.08114404689095339</v>
-      </c>
-      <c r="P7">
-        <v>0.08114404689095339</v>
-      </c>
-      <c r="Q7">
-        <v>0.1437686634651412</v>
-      </c>
-      <c r="R7">
-        <v>0.1437686634651412</v>
-      </c>
-      <c r="S7">
-        <v>0.01316452308743712</v>
-      </c>
-      <c r="T7">
-        <v>0.01316452308743712</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.430673</v>
+      </c>
+      <c r="I12">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J12">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.462491666666667</v>
+      </c>
+      <c r="N12">
+        <v>10.387475</v>
+      </c>
+      <c r="O12">
+        <v>0.156503115206714</v>
+      </c>
+      <c r="P12">
+        <v>0.1565031152067139</v>
+      </c>
+      <c r="Q12">
+        <v>0.4970672245194445</v>
+      </c>
+      <c r="R12">
+        <v>4.473605020675</v>
+      </c>
+      <c r="S12">
+        <v>0.03206556920231548</v>
+      </c>
+      <c r="T12">
+        <v>0.03206556920231547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.430673</v>
+      </c>
+      <c r="I13">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J13">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.167503</v>
+      </c>
+      <c r="N13">
+        <v>6.502509</v>
+      </c>
+      <c r="O13">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="P13">
+        <v>0.09797019152004643</v>
+      </c>
+      <c r="Q13">
+        <v>0.311161673173</v>
+      </c>
+      <c r="R13">
+        <v>2.800455058557</v>
+      </c>
+      <c r="S13">
+        <v>0.02007289089294359</v>
+      </c>
+      <c r="T13">
+        <v>0.02007289089294359</v>
       </c>
     </row>
   </sheetData>
